--- a/maxScoreSheet.xlsx
+++ b/maxScoreSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="27">
   <si>
     <t>Song Name</t>
   </si>
@@ -31,73 +31,70 @@
     <t>Max Score Ratio</t>
   </si>
   <si>
+    <t>potodance</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>ppfcdance</t>
+  </si>
+  <si>
+    <t>chiquitita</t>
+  </si>
+  <si>
+    <t>survivor</t>
+  </si>
+  <si>
+    <t>fortuna</t>
+  </si>
+  <si>
+    <t>howdeepisyourlove</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>polovtsiandance</t>
+  </si>
+  <si>
+    <t>stayinalive</t>
+  </si>
+  <si>
+    <t>giab</t>
+  </si>
+  <si>
+    <t>tmba</t>
+  </si>
+  <si>
+    <t>barbie</t>
+  </si>
+  <si>
+    <t>onedayinyourlife</t>
+  </si>
+  <si>
+    <t>godzilla</t>
+  </si>
+  <si>
+    <t>song2dance</t>
+  </si>
+  <si>
+    <t>believe</t>
+  </si>
+  <si>
+    <t>dancingqueen</t>
+  </si>
+  <si>
     <t>newworldsymphony</t>
   </si>
   <si>
-    <t>NHUNDREDTWENTYEIGHT</t>
-  </si>
-  <si>
-    <t>occurence</t>
-  </si>
-  <si>
-    <t>tmba</t>
-  </si>
-  <si>
-    <t>SHM</t>
-  </si>
-  <si>
-    <t>barbie</t>
-  </si>
-  <si>
-    <t>TS</t>
-  </si>
-  <si>
-    <t>presence</t>
-  </si>
-  <si>
-    <t>dancingqueen</t>
-  </si>
-  <si>
-    <t>AE</t>
-  </si>
-  <si>
-    <t>fortuna</t>
-  </si>
-  <si>
-    <t>chiquitita</t>
+    <t>mhwgo</t>
   </si>
   <si>
     <t>japan</t>
-  </si>
-  <si>
-    <t>ASTWO</t>
-  </si>
-  <si>
-    <t>stayinalive</t>
-  </si>
-  <si>
-    <t>ppfcdance</t>
-  </si>
-  <si>
-    <t>song2dance</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>onedayinyourlife</t>
-  </si>
-  <si>
-    <t>potodance</t>
-  </si>
-  <si>
-    <t>polovtsiandance</t>
-  </si>
-  <si>
-    <t>godzilla</t>
-  </si>
-  <si>
-    <t>howdeepisyourlove</t>
   </si>
 </sst>
 </file>
@@ -429,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -466,7 +463,7 @@
         <v>0.9546875</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -474,13 +471,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3">
-        <v>0.9922330097087378</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>1.5</v>
@@ -488,13 +485,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -505,13 +502,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -522,10 +519,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -534,52 +531,52 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.4579439252336449</v>
       </c>
       <c r="E7">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.9707317073170733</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -590,27 +587,27 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -619,21 +616,21 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D12">
-        <v>0.9902439024390244</v>
+        <v>0.6621359223300971</v>
       </c>
       <c r="E12">
         <v>1.5</v>
@@ -641,33 +638,33 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>0.9625</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>1.5</v>
@@ -675,33 +672,33 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>1.5</v>
@@ -709,18 +706,86 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>0.8796875000000003</v>
+      </c>
+      <c r="E19">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>0.9780701754385965</v>
+      </c>
+      <c r="E20">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
         <v>1.5</v>
       </c>
     </row>
